--- a/data/trans_orig/IP07A26_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F96E84B-DEF7-4DAA-A3E4-0882B7AA68A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80019436-0BED-4326-9314-092892A26579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E20C436C-9ADD-4634-ACC9-482E4950670E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8093D019-2A55-4736-A717-4EE4799F1F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>34,03%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>50,11%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -143,19 +143,19 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -164,7 +164,7 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>33,3%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>5,45%</t>
@@ -173,7 +173,7 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>17,7%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -182,22 +182,22 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>21,67%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -209,118 +209,118 @@
     <t>51,98%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>8,31%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -329,16 +329,16 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -347,79 +347,76 @@
     <t>67,05%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>68,14%</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -428,160 +425,160 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,67%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>5,97%</t>
+  </si>
+  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>8,41%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
   </si>
   <si>
     <t>61,29%</t>
   </si>
   <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>4,5%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -996,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0CA5F7-32AC-44FC-9D94-DB9F2595CF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B617156-EF1C-4DB7-9D4C-D7D1633E1E91}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1808,7 +1805,7 @@
         <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -1817,13 +1814,13 @@
         <v>46683</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1835,13 @@
         <v>5829</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1853,13 +1850,13 @@
         <v>1175</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -1868,13 +1865,13 @@
         <v>7004</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,7 +1892,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1904,13 +1901,13 @@
         <v>759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1919,13 +1916,13 @@
         <v>759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1937,13 @@
         <v>1175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2164,10 +2161,10 @@
         <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -2176,13 +2173,13 @@
         <v>37665</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2194,13 @@
         <v>6457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2212,13 +2209,13 @@
         <v>3045</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2227,13 +2224,13 @@
         <v>9502</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2245,13 @@
         <v>15502</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2263,13 +2260,13 @@
         <v>7559</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2278,13 +2275,13 @@
         <v>23061</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,7 +2337,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
